--- a/Desarrollo/SABS/Gestión/SABS-CP.xlsx
+++ b/Desarrollo/SABS/Gestión/SABS-CP.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mj7AdM4KmqZJ/UmNWeona5GahGn6g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mitrENKh33zFybmLOF1E1A7kWUrxA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="165">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Proyecto:</t>
   </si>
   <si>
-    <t>Sistema de administración para un banco de sangre (SABS)</t>
+    <t>Sistema de administración de un banco de sangre (SABS)</t>
   </si>
   <si>
     <t>Enfoque de desarrollo:</t>
@@ -105,13 +105,12 @@
     <t>S1</t>
   </si>
   <si>
-    <t>Desarrollar del Plan de Proyecto</t>
+    <t>Desarrollar el Plan de Proyecto</t>
   </si>
   <si>
     <r>
       <rPr>
         <rFont val="Helvetica Neue"/>
-        <b/>
         <i/>
         <color rgb="FF000000"/>
         <sz val="10.0"/>
@@ -121,7 +120,6 @@
     <r>
       <rPr>
         <rFont val="Helvetica Neue"/>
-        <b/>
         <i/>
         <color rgb="FF000000"/>
         <sz val="10.0"/>
@@ -169,7 +167,7 @@
     <t>SABS-DEHU1.pdf</t>
   </si>
   <si>
-    <t>Documentar HU_002 Cambiar contraseña</t>
+    <t>Documentar HU_002 Mostrar donantes</t>
   </si>
   <si>
     <t>Documento de especificacion de HU_002</t>
@@ -190,7 +188,7 @@
     <t>Cespedes/A</t>
   </si>
   <si>
-    <t>Documentar HU_004 Editar datos del dondante</t>
+    <t>Documentar HU_004 Eliminar donante</t>
   </si>
   <si>
     <t>Documento de especificacion de HU_004</t>
@@ -199,7 +197,7 @@
     <t>SABS-DEHU4.pdf</t>
   </si>
   <si>
-    <t>Documentar HU_005 Eliminar donante</t>
+    <t>Documentar HU_005 Mostrar administradores</t>
   </si>
   <si>
     <t>Documento de especificacion de HU_005</t>
@@ -208,7 +206,7 @@
     <t>SABS-DEHU5.pdf</t>
   </si>
   <si>
-    <t>Documentar HU_006 Mostrar donante</t>
+    <t>Documentar HU_006 Editar datos del donante</t>
   </si>
   <si>
     <t>Documento de especificacion de HU_006</t>
@@ -352,16 +350,16 @@
     <t>Código, SABS.java</t>
   </si>
   <si>
-    <t>Codificar HU_002 Cambiar contraseña</t>
+    <t>SABS.java</t>
+  </si>
+  <si>
+    <t>Codificar HU_002 Mostrar donantes</t>
   </si>
   <si>
     <t>Codificar HU_003 Registrar donante</t>
   </si>
   <si>
-    <t>Codificar HU_004 Editar datos del dondante</t>
-  </si>
-  <si>
-    <t>Codificar HU_005 Eliminar donante</t>
+    <t>Codificar HU_004 Eliminar donante</t>
   </si>
   <si>
     <t>Reportar estado actual del software</t>
@@ -388,7 +386,34 @@
     <t>Hito 2 - Fin del Sprint #2</t>
   </si>
   <si>
-    <t>Codificar HU_006 Mostrar donantes</t>
+    <t>Especificar el plan de negocio</t>
+  </si>
+  <si>
+    <t>Documento de plan de negocio</t>
+  </si>
+  <si>
+    <t>SABS-DPN.pdf</t>
+  </si>
+  <si>
+    <t>Huarhuachi/DI, Cespedes/A</t>
+  </si>
+  <si>
+    <t>Documentar la arquitectura de software</t>
+  </si>
+  <si>
+    <t>Documento de arquitectura de software</t>
+  </si>
+  <si>
+    <t>SABS-DAS.pdf</t>
+  </si>
+  <si>
+    <t>Sánchez/AB,Leon/SR</t>
+  </si>
+  <si>
+    <t>Codificar HU_005 Mostrar administradores</t>
+  </si>
+  <si>
+    <t>Codificar HU_006 Editar datos del donante</t>
   </si>
   <si>
     <t>Codificar HU_007 Extraccion Sangre</t>
@@ -403,13 +428,16 @@
     <t>Codificar HU_009 Traslado de sangre</t>
   </si>
   <si>
-    <t>Codificar HU_0010 Identicador de huellas para registrar datos</t>
+    <t>Codificar HU_0010 Identificador de huellas para registrar datos</t>
   </si>
   <si>
     <t>S9 - S10</t>
   </si>
   <si>
-    <t>Codificar HU_0011 Mostrar registro de solicitantes</t>
+    <t>Codificar HU_0011 Mostrar registro de solicitudes</t>
+  </si>
+  <si>
+    <t>Actualizar Reporte del Desarrollo del Software</t>
   </si>
   <si>
     <t>Reporte del Tercer Sprint</t>
@@ -457,7 +485,7 @@
     <t>SABS-RCS.pdf</t>
   </si>
   <si>
-    <t>Elaborar del acta de cierre del proyecto</t>
+    <t>Elaborar acta de cierre del proyecto</t>
   </si>
   <si>
     <t>Acta de cierre del proyecto</t>
@@ -531,7 +559,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -613,13 +641,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -699,6 +720,10 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
@@ -706,10 +731,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
@@ -763,8 +784,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
@@ -774,7 +795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="31">
     <border/>
     <border>
       <left style="thick">
@@ -1020,37 +1041,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1112,6 +1102,14 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1153,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1231,79 +1229,78 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="12" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="4" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="6" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="6" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="6" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="4" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="2" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="13" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="6" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="6" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="6" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="4" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="2" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="19" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="2" fontId="18" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="19" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="2" fontId="18" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="22" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="4" fontId="21" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="5" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="20" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1313,79 +1310,75 @@
     <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="21" fillId="4" fontId="22" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="23" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="2" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="24" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="2" fontId="23" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="2" fontId="23" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="25" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="6" fontId="24" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="22" fillId="4" fontId="25" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="5" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="16" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="23" fillId="4" fontId="25" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="20" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="5" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="16" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="20" fillId="5" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="5" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="20" fillId="5" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="20" fillId="5" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="16" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="4" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="24" fillId="2" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="2" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="2" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="2" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="2" fontId="19" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="2" fontId="18" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="28" fillId="2" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="7" fontId="29" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="23" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="12" fillId="8" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="19" fillId="8" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="8" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="8" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="8" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="26" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1395,22 +1388,22 @@
     <xf borderId="16" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="32" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="2" fontId="29" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="23" fillId="2" fontId="31" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="27" fillId="2" fontId="31" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1423,16 +1416,16 @@
     <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="31" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="32" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1745,7 +1738,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="14">
-        <v>44886.0</v>
+        <v>44900.0</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1843,7 +1836,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -2304,10 +2297,10 @@
       <c r="B29" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="47" t="s">
         <v>85</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -2330,29 +2323,29 @@
       <c r="A30" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53">
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52">
         <v>44816.0</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="52">
         <v>44842.0</v>
       </c>
-      <c r="H30" s="54"/>
+      <c r="H30" s="53"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="15"/>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="54" t="s">
         <v>88</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="55" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="26" t="s">
@@ -2364,7 +2357,7 @@
       <c r="G31" s="27">
         <v>44843.0</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="56">
         <v>1.0</v>
       </c>
       <c r="I31" s="29" t="s">
@@ -2375,10 +2368,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="15"/>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="57" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="32" t="s">
@@ -2401,7 +2394,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="15"/>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="58" t="s">
         <v>92</v>
       </c>
       <c r="C33" s="46" t="s">
@@ -2427,7 +2420,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="15"/>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="59" t="s">
         <v>93</v>
       </c>
       <c r="C34" s="37" t="s">
@@ -2453,13 +2446,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="15"/>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="55" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="26" t="s">
@@ -2471,22 +2464,22 @@
       <c r="G35" s="27">
         <v>44856.0</v>
       </c>
-      <c r="H35" s="63">
-        <v>0.0</v>
+      <c r="H35" s="34">
+        <v>1.0</v>
       </c>
       <c r="J35" s="35"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="15"/>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="56" t="s">
-        <v>17</v>
+      <c r="D36" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>30</v>
@@ -2497,8 +2490,8 @@
       <c r="G36" s="27">
         <v>44856.0</v>
       </c>
-      <c r="H36" s="63">
-        <v>0.0</v>
+      <c r="H36" s="34">
+        <v>1.0</v>
       </c>
       <c r="J36" s="35"/>
       <c r="K36" s="9"/>
@@ -2506,13 +2499,13 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="15"/>
       <c r="B37" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="C37" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>17</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>30</v>
@@ -2523,8 +2516,8 @@
       <c r="G37" s="27">
         <v>44856.0</v>
       </c>
-      <c r="H37" s="63">
-        <v>0.0</v>
+      <c r="H37" s="34">
+        <v>1.0</v>
       </c>
       <c r="J37" s="35"/>
       <c r="K37" s="9"/>
@@ -2532,13 +2525,13 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="56" t="s">
-        <v>17</v>
+      <c r="D38" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>30</v>
@@ -2549,8 +2542,8 @@
       <c r="G38" s="27">
         <v>44856.0</v>
       </c>
-      <c r="H38" s="63">
-        <v>0.0</v>
+      <c r="H38" s="34">
+        <v>1.0</v>
       </c>
       <c r="J38" s="35"/>
       <c r="K38" s="9"/>
@@ -2558,13 +2551,13 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="15"/>
       <c r="B39" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="56" t="s">
-        <v>17</v>
+      <c r="D39" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>30</v>
@@ -2575,8 +2568,8 @@
       <c r="G39" s="27">
         <v>44856.0</v>
       </c>
-      <c r="H39" s="63">
-        <v>0.0</v>
+      <c r="H39" s="34">
+        <v>1.0</v>
       </c>
       <c r="I39" s="29"/>
       <c r="J39" s="35"/>
@@ -2584,41 +2577,43 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="15"/>
-      <c r="B40" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="56" t="s">
-        <v>17</v>
+      <c r="B40" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="27">
-        <v>44844.0</v>
+        <v>44856.0</v>
       </c>
       <c r="G40" s="27">
-        <v>44856.0</v>
-      </c>
-      <c r="H40" s="63">
-        <v>0.0</v>
-      </c>
-      <c r="I40" s="29"/>
+        <v>44858.0</v>
+      </c>
+      <c r="H40" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="J40" s="35"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="15"/>
       <c r="B41" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>107</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>30</v>
@@ -2629,69 +2624,67 @@
       <c r="G41" s="27">
         <v>44858.0</v>
       </c>
-      <c r="H41" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>105</v>
+      <c r="H41" s="34">
+        <v>1.0</v>
       </c>
       <c r="J41" s="35"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="27">
-        <v>44856.0</v>
-      </c>
-      <c r="G42" s="27">
+      <c r="A42" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="66">
+        <v>44837.0</v>
+      </c>
+      <c r="G42" s="66">
         <v>44858.0</v>
       </c>
-      <c r="H42" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="9"/>
+      <c r="H42" s="67"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="68">
-        <v>44837.0</v>
+      <c r="A43" s="15"/>
+      <c r="B43" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="27">
+        <v>44858.0</v>
       </c>
       <c r="G43" s="68">
-        <v>44858.0</v>
-      </c>
-      <c r="H43" s="69"/>
+        <v>44867.0</v>
+      </c>
+      <c r="H43" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="I43" s="29"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="15"/>
-      <c r="B44" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>17</v>
+      <c r="B44" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>20</v>
@@ -2699,52 +2692,51 @@
       <c r="F44" s="27">
         <v>44858.0</v>
       </c>
-      <c r="G44" s="70">
-        <v>44864.0</v>
-      </c>
-      <c r="H44" s="71">
-        <v>0.0</v>
-      </c>
-      <c r="I44" s="29"/>
+      <c r="G44" s="68">
+        <v>44867.0</v>
+      </c>
+      <c r="H44" s="34">
+        <v>1.0</v>
+      </c>
       <c r="J44" s="35"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="15"/>
-      <c r="B45" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="73" t="s">
-        <v>71</v>
+      <c r="B45" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>80</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="43" t="s">
         <v>20</v>
       </c>
       <c r="F45" s="27">
         <v>44858.0</v>
       </c>
-      <c r="G45" s="70">
-        <v>44864.0</v>
-      </c>
-      <c r="H45" s="74">
-        <v>0.0</v>
+      <c r="G45" s="68">
+        <v>44867.0</v>
+      </c>
+      <c r="H45" s="34">
+        <v>1.0</v>
       </c>
       <c r="J45" s="35"/>
       <c r="K45" s="9"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="15"/>
-      <c r="B46" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="76" t="s">
-        <v>80</v>
+      <c r="B46" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>76</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E46" s="43" t="s">
         <v>20</v>
@@ -2752,63 +2744,78 @@
       <c r="F46" s="27">
         <v>44858.0</v>
       </c>
-      <c r="G46" s="70">
-        <v>44864.0</v>
-      </c>
-      <c r="H46" s="74">
-        <v>0.0</v>
+      <c r="G46" s="68">
+        <v>44867.0</v>
+      </c>
+      <c r="H46" s="34">
+        <v>1.0</v>
       </c>
       <c r="J46" s="35"/>
       <c r="K46" s="9"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="15"/>
-      <c r="B47" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="27">
-        <v>44858.0</v>
-      </c>
-      <c r="G47" s="70">
-        <v>44864.0</v>
-      </c>
-      <c r="H47" s="74">
-        <v>0.0</v>
+      <c r="B47" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="68">
+        <v>44867.0</v>
+      </c>
+      <c r="G47" s="68">
+        <v>44871.0</v>
+      </c>
+      <c r="H47" s="34">
+        <v>1.0</v>
       </c>
       <c r="J47" s="35"/>
       <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="15"/>
-      <c r="B48" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="70">
-        <v>44865.0</v>
-      </c>
-      <c r="G48" s="70">
-        <v>44877.0</v>
-      </c>
-      <c r="H48" s="74">
-        <v>0.0</v>
+      <c r="B48" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="68">
+        <v>44867.0</v>
+      </c>
+      <c r="G48" s="68">
+        <v>44871.0</v>
+      </c>
+      <c r="H48" s="34">
+        <v>1.0</v>
       </c>
       <c r="J48" s="35"/>
       <c r="K48" s="9"/>
@@ -2828,446 +2835,518 @@
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="15"/>
-      <c r="B49" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="64" t="s">
+      <c r="B49" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="56" t="s">
-        <v>17</v>
+      <c r="D49" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="70">
-        <v>44865.0</v>
-      </c>
-      <c r="G49" s="70">
-        <v>44877.0</v>
-      </c>
-      <c r="H49" s="74">
-        <v>0.0</v>
+      <c r="F49" s="68">
+        <v>44871.0</v>
+      </c>
+      <c r="G49" s="68">
+        <v>44883.0</v>
+      </c>
+      <c r="H49" s="34">
+        <v>1.0</v>
       </c>
       <c r="J49" s="35"/>
       <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="15"/>
-      <c r="B50" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="64" t="s">
+      <c r="B50" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="56" t="s">
-        <v>17</v>
+      <c r="D50" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="70">
-        <v>44865.0</v>
-      </c>
-      <c r="G50" s="70">
-        <v>44877.0</v>
-      </c>
-      <c r="H50" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>113</v>
+      <c r="F50" s="68">
+        <v>44871.0</v>
+      </c>
+      <c r="G50" s="68">
+        <v>44883.0</v>
+      </c>
+      <c r="H50" s="34">
+        <v>1.0</v>
       </c>
       <c r="J50" s="35"/>
       <c r="K50" s="9"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="15"/>
-      <c r="B51" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="64" t="s">
+      <c r="B51" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="56" t="s">
-        <v>17</v>
+      <c r="D51" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="E51" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="70">
-        <v>44865.0</v>
-      </c>
-      <c r="G51" s="70">
-        <v>44877.0</v>
-      </c>
-      <c r="H51" s="74">
-        <v>0.0</v>
+      <c r="F51" s="68">
+        <v>44871.0</v>
+      </c>
+      <c r="G51" s="68">
+        <v>44896.0</v>
+      </c>
+      <c r="H51" s="34">
+        <v>1.0</v>
       </c>
       <c r="J51" s="35"/>
       <c r="K51" s="9"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="15"/>
-      <c r="B52" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="64" t="s">
+      <c r="B52" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="56" t="s">
-        <v>17</v>
+      <c r="D52" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="E52" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="70">
-        <v>44865.0</v>
-      </c>
-      <c r="G52" s="70">
-        <v>44877.0</v>
-      </c>
-      <c r="H52" s="74">
-        <v>0.0</v>
+      <c r="F52" s="68">
+        <v>44871.0</v>
+      </c>
+      <c r="G52" s="68">
+        <v>44896.0</v>
+      </c>
+      <c r="H52" s="34">
+        <v>1.0</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J52" s="35"/>
       <c r="K52" s="9"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="15"/>
-      <c r="B53" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="64" t="s">
+      <c r="B53" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="56" t="s">
-        <v>17</v>
+      <c r="D53" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="E53" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="70">
-        <v>44865.0</v>
-      </c>
-      <c r="G53" s="70">
-        <v>44877.0</v>
-      </c>
-      <c r="H53" s="74">
-        <v>0.0</v>
+      <c r="F53" s="68">
+        <v>44871.0</v>
+      </c>
+      <c r="G53" s="68">
+        <v>44896.0</v>
+      </c>
+      <c r="H53" s="34">
+        <v>1.0</v>
       </c>
       <c r="J53" s="35"/>
       <c r="K53" s="9"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="15"/>
-      <c r="B54" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>104</v>
+      <c r="B54" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="70">
-        <v>44877.0</v>
-      </c>
-      <c r="G54" s="70">
-        <v>44879.0</v>
-      </c>
-      <c r="H54" s="74">
-        <v>0.0</v>
+      <c r="F54" s="68">
+        <v>44871.0</v>
+      </c>
+      <c r="G54" s="68">
+        <v>44896.0</v>
+      </c>
+      <c r="H54" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>125</v>
       </c>
       <c r="J54" s="35"/>
       <c r="K54" s="9"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="15"/>
-      <c r="B55" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>119</v>
+      <c r="B55" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="E55" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="70">
-        <v>44877.0</v>
-      </c>
-      <c r="G55" s="70">
-        <v>44879.0</v>
-      </c>
-      <c r="H55" s="74">
-        <v>0.0</v>
+      <c r="F55" s="68">
+        <v>44871.0</v>
+      </c>
+      <c r="G55" s="68">
+        <v>44896.0</v>
+      </c>
+      <c r="H55" s="34">
+        <v>1.0</v>
       </c>
       <c r="J55" s="35"/>
       <c r="K55" s="9"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="85">
+      <c r="A56" s="15"/>
+      <c r="B56" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="68">
+        <v>44896.0</v>
+      </c>
+      <c r="G56" s="68">
+        <v>44897.0</v>
+      </c>
+      <c r="H56" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="J56" s="35"/>
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="15"/>
+      <c r="B57" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="68">
+        <v>44896.0</v>
+      </c>
+      <c r="G57" s="68">
+        <v>44897.0</v>
+      </c>
+      <c r="H57" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="J57" s="35"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="81">
         <v>44858.0</v>
       </c>
-      <c r="G56" s="85">
-        <v>44879.0</v>
-      </c>
-      <c r="H56" s="86"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="55" t="s">
+      <c r="G58" s="82">
+        <v>44897.0</v>
+      </c>
+      <c r="H58" s="83"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="B59" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C59" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D59" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E59" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="70">
-        <v>44879.0</v>
-      </c>
-      <c r="G57" s="27">
-        <v>44884.0</v>
-      </c>
-      <c r="H57" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="58" t="s">
+      <c r="F59" s="68">
+        <v>44897.0</v>
+      </c>
+      <c r="G59" s="27">
+        <v>44900.0</v>
+      </c>
+      <c r="H59" s="34">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="B60" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D60" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E60" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="70">
-        <v>44879.0</v>
-      </c>
-      <c r="G58" s="27">
-        <v>44884.0</v>
-      </c>
-      <c r="H58" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="46" t="s">
+      <c r="F60" s="68">
+        <v>44897.0</v>
+      </c>
+      <c r="G60" s="27">
+        <v>44900.0</v>
+      </c>
+      <c r="H60" s="34">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="B61" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D61" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E61" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="70">
-        <v>44879.0</v>
-      </c>
-      <c r="G59" s="27">
-        <v>44884.0</v>
-      </c>
-      <c r="H59" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="37" t="s">
+      <c r="F61" s="68">
+        <v>44897.0</v>
+      </c>
+      <c r="G61" s="27">
+        <v>44900.0</v>
+      </c>
+      <c r="H61" s="34">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="B62" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D62" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E62" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="70">
-        <v>44879.0</v>
-      </c>
-      <c r="G60" s="27">
-        <v>44884.0</v>
-      </c>
-      <c r="H60" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="27">
-        <v>44884.0</v>
-      </c>
-      <c r="G61" s="27">
-        <v>44886.0</v>
-      </c>
-      <c r="H61" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="27">
-        <v>44884.0</v>
+      <c r="F62" s="68">
+        <v>44897.0</v>
       </c>
       <c r="G62" s="27">
-        <v>44886.0</v>
-      </c>
-      <c r="H62" s="28">
-        <v>0.0</v>
+        <v>44900.0</v>
+      </c>
+      <c r="H62" s="34">
+        <v>1.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>104</v>
+      <c r="B63" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="E63" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="27">
-        <v>44884.0</v>
+      <c r="F63" s="68">
+        <v>44897.0</v>
       </c>
       <c r="G63" s="27">
-        <v>44886.0</v>
-      </c>
-      <c r="H63" s="28">
-        <v>0.0</v>
+        <v>44900.0</v>
+      </c>
+      <c r="H63" s="34">
+        <v>1.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>132</v>
+      <c r="B64" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="27">
-        <v>44884.0</v>
+      <c r="F64" s="68">
+        <v>44897.0</v>
       </c>
       <c r="G64" s="27">
-        <v>44886.0</v>
-      </c>
-      <c r="H64" s="28">
-        <v>0.0</v>
+        <v>44900.0</v>
+      </c>
+      <c r="H64" s="34">
+        <v>1.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>135</v>
+      <c r="B65" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="E65" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="27">
-        <v>44884.0</v>
+      <c r="F65" s="68">
+        <v>44897.0</v>
       </c>
       <c r="G65" s="27">
-        <v>44886.0</v>
-      </c>
-      <c r="H65" s="28">
-        <v>0.0</v>
+        <v>44900.0</v>
+      </c>
+      <c r="H65" s="34">
+        <v>1.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="95">
-        <v>44879.0</v>
-      </c>
-      <c r="G66" s="95">
-        <v>44886.0</v>
-      </c>
-      <c r="H66" s="96"/>
+      <c r="B66" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="68">
+        <v>44897.0</v>
+      </c>
+      <c r="G66" s="27">
+        <v>44900.0</v>
+      </c>
+      <c r="H66" s="34">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="B67" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="68">
+        <v>44897.0</v>
+      </c>
+      <c r="G67" s="27">
+        <v>44900.0</v>
+      </c>
+      <c r="H67" s="34">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="A68" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="92">
+        <v>44897.0</v>
+      </c>
+      <c r="G68" s="92">
+        <v>44900.0</v>
+      </c>
+      <c r="H68" s="93"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="F69" s="6"/>
@@ -4144,8 +4223,16 @@
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+    </row>
     <row r="246" ht="15.75" customHeight="1"/>
     <row r="247" ht="15.75" customHeight="1"/>
     <row r="248" ht="15.75" customHeight="1"/>
@@ -4900,18 +4987,20 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I44:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="I43:I51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I58"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I29:I30"/>
     <mergeCell ref="I31:I38"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I40:I42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -4940,79 +5029,79 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="97" t="s">
-        <v>138</v>
+      <c r="B2" s="94" t="s">
+        <v>148</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="98" t="s">
-        <v>139</v>
+      <c r="B3" s="95" t="s">
+        <v>149</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="99" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="100" t="s">
-        <v>141</v>
+      <c r="B4" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="101" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>143</v>
+      <c r="B5" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="103" t="s">
-        <v>145</v>
+      <c r="B6" s="98" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>147</v>
+      <c r="B7" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="104" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="103" t="s">
-        <v>149</v>
+      <c r="B8" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="105" t="s">
-        <v>151</v>
+      <c r="B9" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="103" t="s">
-        <v>153</v>
+      <c r="B10" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="107" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>153</v>
+      <c r="B11" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
